--- a/Testcases_supplier/Users/Manual testcases/Teams listing testcases.xlsx
+++ b/Testcases_supplier/Users/Manual testcases/Teams listing testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Testcases_supplier\Users\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAED0CF8-B397-44FF-B680-ED8BAB53FD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF59C13-9F87-4F30-A6CD-3E971901B1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -237,33 +237,6 @@
     <t>It gets displayed the Team name, Members, Add new, Cancel and save</t>
   </si>
   <si>
-    <r>
-      <t>Click the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Add new</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">,it shows select user dropdown list ,select from dropdown and save </t>
-    </r>
-  </si>
-  <si>
-    <t>It displayed successfully linked Users and teams</t>
-  </si>
-  <si>
     <t>It gets displayed successfully updated team</t>
   </si>
   <si>
@@ -620,6 +593,33 @@
   <si>
     <t>Displayed                                                                                     1.Delete team only (users will remain linked to outlets)                                                                                          2.Delete team and remove users’ links to the outlets
 If click yes ,it displayed successfully deleted the team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It displayed successfully linked Users and teams                  *It displayed 'Remove successfully'               </t>
+  </si>
+  <si>
+    <r>
+      <t>Click the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Add new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>,it shows select user dropdown list ,select from dropdown and save                                                                           *Actions: Click the Actions it shows 'Remove' option</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1094,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,13 +1192,13 @@
         <v>9</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>57</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>13</v>
@@ -1215,13 +1215,13 @@
         <v>9</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>60</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>13</v>
@@ -1238,13 +1238,13 @@
         <v>9</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="21" t="s">
         <v>61</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>63</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>13</v>
@@ -1330,7 +1330,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>26</v>
@@ -1342,7 +1342,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1353,13 +1353,13 @@
         <v>9</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" t="s">
-        <v>29</v>
+        <v>63</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>13</v>
@@ -1376,13 +1376,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>13</v>
@@ -1399,13 +1399,13 @@
         <v>9</v>
       </c>
       <c r="D13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>34</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>13</v>
@@ -1422,13 +1422,13 @@
         <v>9</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>13</v>
@@ -1445,13 +1445,13 @@
         <v>9</v>
       </c>
       <c r="D15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>38</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>40</v>
       </c>
       <c r="G15" s="16"/>
     </row>
@@ -1466,13 +1466,13 @@
         <v>9</v>
       </c>
       <c r="D16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>43</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>13</v>
@@ -1489,13 +1489,13 @@
         <v>9</v>
       </c>
       <c r="D17" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>13</v>
@@ -1512,13 +1512,13 @@
         <v>9</v>
       </c>
       <c r="D18" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="17" t="s">
         <v>46</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>48</v>
       </c>
       <c r="G18" s="18" t="s">
         <v>13</v>
@@ -1535,13 +1535,13 @@
         <v>9</v>
       </c>
       <c r="D19" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>13</v>
